--- a/excel/测试表.xlsx
+++ b/excel/测试表.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="表1" sheetId="1" r:id="rId1"/>
+    <sheet name="表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,26 +55,24 @@
     <t>名称7</t>
   </si>
   <si>
-    <t>是类风湿的1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是类风湿的2</t>
-  </si>
-  <si>
-    <t>是类风湿的3</t>
-  </si>
-  <si>
-    <t>是类风湿的4</t>
-  </si>
-  <si>
-    <t>是类风湿的5</t>
-  </si>
-  <si>
-    <t>是类风湿的6</t>
-  </si>
-  <si>
-    <t>是类风湿的7</t>
+    <t>是隔热郭德纲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -422,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -448,101 +447,115 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>10001</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
+        <v>10006</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
         <v>10007</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
+      <c r="D9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -550,4 +563,146 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>10001</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>10002</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>10003</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>10004</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>10005</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>10006</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>10007</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>